--- a/Car Pass Per Hour.xlsx
+++ b/Car Pass Per Hour.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Velocity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,6 +37,14 @@
     <t>Pass/Hour</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Safe Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Safe Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -46,7 +54,7 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +67,22 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -85,7 +109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -97,6 +121,12 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -171,7 +201,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -223,10 +253,10 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$139</c:f>
+              <c:f>Sheet1!$B$2:$B$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="138"/>
+                <c:ptCount val="128"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -610,459 +640,399 @@
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$139</c:f>
+              <c:f>Sheet1!$E$2:$E$129</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="138"/>
+                <c:ptCount val="128"/>
                 <c:pt idx="0">
-                  <c:v>197.80219780219781</c:v>
+                  <c:v>209.30232558139537</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>356.43564356435644</c:v>
+                  <c:v>395.60439560439562</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>486.48648648648646</c:v>
+                  <c:v>562.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>595.04132231404958</c:v>
+                  <c:v>712.87128712871288</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>687.02290076335873</c:v>
+                  <c:v>849.05660377358481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>765.95744680851055</c:v>
+                  <c:v>972.97297297297291</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>834.43708609271505</c:v>
+                  <c:v>1086.206896551724</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>894.4099378881989</c:v>
+                  <c:v>1190.0826446280992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>947.36842105263167</c:v>
+                  <c:v>1285.7142857142858</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>994.47513812154693</c:v>
+                  <c:v>1374.0458015267175</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1036.6492146596859</c:v>
+                  <c:v>1455.8823529411766</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1074.6268656716418</c:v>
+                  <c:v>1531.9148936170211</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1109.004739336493</c:v>
+                  <c:v>1602.7397260273972</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1140.2714932126696</c:v>
+                  <c:v>1668.8741721854301</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1168.8311688311687</c:v>
+                  <c:v>1730.7692307692307</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1195.0207468879669</c:v>
+                  <c:v>1788.8198757763978</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1219.1235059760957</c:v>
+                  <c:v>1843.3734939759038</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1241.3793103448277</c:v>
+                  <c:v>1894.7368421052633</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1261.9926199261993</c:v>
+                  <c:v>1943.181818181818</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1281.1387900355871</c:v>
+                  <c:v>1988.9502762430939</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1298.9690721649486</c:v>
+                  <c:v>2032.258064516129</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1315.6146179401994</c:v>
+                  <c:v>2073.2984293193717</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1331.1897106109323</c:v>
+                  <c:v>2112.2448979591836</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1345.7943925233644</c:v>
+                  <c:v>2149.2537313432836</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1359.5166163141994</c:v>
+                  <c:v>2184.4660194174758</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1372.4340175953082</c:v>
+                  <c:v>2218.009478672986</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1384.6153846153845</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1396.1218836565097</c:v>
+                  <c:v>2280.5429864253392</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1407.0080862533694</c:v>
+                  <c:v>2309.7345132743362</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1417.3228346456692</c:v>
+                  <c:v>2337.6623376623374</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1427.1099744245525</c:v>
+                  <c:v>2364.4067796610166</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1436.4089775561097</c:v>
+                  <c:v>2390.0414937759338</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1445.2554744525548</c:v>
+                  <c:v>2414.6341463414633</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1453.6817102137766</c:v>
+                  <c:v>2438.2470119521913</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1461.7169373549882</c:v>
+                  <c:v>2460.9375</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1469.3877551020407</c:v>
+                  <c:v>2482.7586206896553</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1476.7184035476719</c:v>
+                  <c:v>2503.7593984962405</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1483.7310195227765</c:v>
+                  <c:v>2523.9852398523985</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1490.4458598726117</c:v>
+                  <c:v>2543.478260869565</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1496.881496881497</c:v>
+                  <c:v>2562.2775800711743</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1503.0549898167008</c:v>
+                  <c:v>2580.4195804195806</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1508.9820359281437</c:v>
+                  <c:v>2597.9381443298971</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1514.6771037181998</c:v>
+                  <c:v>2614.864864864865</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1520.1535508637237</c:v>
+                  <c:v>2631.2292358803988</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1525.4237288135594</c:v>
+                  <c:v>2647.0588235294117</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1530.4990757855824</c:v>
+                  <c:v>2662.3794212218645</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1535.3901996370234</c:v>
+                  <c:v>2677.2151898734173</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1540.1069518716579</c:v>
+                  <c:v>2691.5887850467288</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1544.6584938704029</c:v>
+                  <c:v>2705.5214723926383</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1549.053356282272</c:v>
+                  <c:v>2719.0332326283988</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1553.2994923857871</c:v>
+                  <c:v>2732.1428571428573</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1557.4043261231282</c:v>
+                  <c:v>2744.8680351906164</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1561.3747954173484</c:v>
+                  <c:v>2757.2254335260118</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1565.217391304348</c:v>
+                  <c:v>2769.2307692307691</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1568.9381933438983</c:v>
+                  <c:v>2780.8988764044943</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1572.5429017160684</c:v>
+                  <c:v>2792.2437673130194</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1576.036866359447</c:v>
+                  <c:v>2803.2786885245901</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1579.4251134644478</c:v>
+                  <c:v>2814.0161725067387</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1582.7123695976156</c:v>
+                  <c:v>2824.4680851063831</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1585.9030837004404</c:v>
+                  <c:v>2834.6456692913384</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1589.001447178003</c:v>
+                  <c:v>2844.5595854922281</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1592.0114122681885</c:v>
+                  <c:v>2854.2199488491051</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1594.9367088607596</c:v>
+                  <c:v>2863.6363636363635</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1597.7808599167824</c:v>
+                  <c:v>2872.8179551122194</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1600.5471956224351</c:v>
+                  <c:v>2881.7733990147781</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1603.2388663967611</c:v>
+                  <c:v>2890.5109489051097</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1605.8588548601865</c:v>
+                  <c:v>2899.0384615384619</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1608.4099868593955</c:v>
+                  <c:v>2907.3634204275531</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1610.8949416342411</c:v>
+                  <c:v>2915.4929577464791</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1613.3162612035853</c:v>
+                  <c:v>2923.4338747099764</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1615.6763590391909</c:v>
+                  <c:v>2931.1926605504591</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1617.9775280898875</c:v>
+                  <c:v>2938.7755102040815</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1620.2219482120838</c:v>
+                  <c:v>2946.1883408071749</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1622.411693057247</c:v>
+                  <c:v>2953.4368070953437</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1624.5487364620938</c:v>
+                  <c:v>2960.5263157894738</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1626.6349583828774</c:v>
+                  <c:v>2967.462039045553</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1628.6721504112807</c:v>
+                  <c:v>2974.2489270386268</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1630.6620209059233</c:v>
+                  <c:v>2980.8917197452233</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1632.6061997703787</c:v>
+                  <c:v>2987.3949579831933</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1634.5062429057889</c:v>
+                  <c:v>2993.762993762994</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1636.3636363636363</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1638.1798002219755</c:v>
+                  <c:v>3006.1099796334015</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1639.9560922063665</c:v>
+                  <c:v>3012.0967741935483</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1641.6938110749184</c:v>
+                  <c:v>3017.9640718562873</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1643.3941997851773</c:v>
+                  <c:v>3023.7154150197625</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1645.0584484590859</c:v>
+                  <c:v>3029.3542074363995</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1646.6876971608831</c:v>
+                  <c:v>3034.8837209302328</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1648.2830385015609</c:v>
+                  <c:v>3040.3071017274474</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1649.8455200823894</c:v>
+                  <c:v>3045.6273764258553</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1651.3761467889908</c:v>
+                  <c:v>3050.8474576271187</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1652.8758829465189</c:v>
+                  <c:v>3055.9701492537311</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1654.3456543456541</c:v>
+                  <c:v>3060.9981515711647</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1655.7863501483678</c:v>
+                  <c:v>3065.9340659340655</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1657.1988246816848</c:v>
+                  <c:v>3070.7803992740469</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1658.5838991270609</c:v>
+                  <c:v>3075.5395683453239</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1659.9423631123918</c:v>
+                  <c:v>3080.2139037433158</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1661.2749762131305</c:v>
+                  <c:v>3084.805653710247</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1662.5824693685204</c:v>
+                  <c:v>3089.3169877408059</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1663.8655462184875</c:v>
+                  <c:v>3093.75</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1665.1248843663275</c:v>
+                  <c:v>3098.1067125645441</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1666.3611365719523</c:v>
+                  <c:v>3102.3890784982932</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1667.574931880109</c:v>
+                  <c:v>3106.5989847715741</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1668.7668766876689</c:v>
+                  <c:v>3110.7382550335569</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1669.9375557537912</c:v>
+                  <c:v>3114.8086522462563</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1671.0875331564987</c:v>
+                  <c:v>3118.8118811881186</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1672.2173531989483</c:v>
+                  <c:v>3122.7495908346968</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1673.3275412684623</c:v>
+                  <c:v>3126.6233766233763</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1674.4186046511629</c:v>
+                  <c:v>3130.434782608696</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1675.4910333048676</c:v>
+                  <c:v>3134.1853035143772</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1676.5453005927179</c:v>
+                  <c:v>3137.8763866877966</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1677.581863979849</c:v>
+                  <c:v>3141.5094339622647</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1678.6011656952539</c:v>
+                  <c:v>3145.0858034321368</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1679.603633360859</c:v>
+                  <c:v>3148.6068111455111</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1680.5896805896805</c:v>
+                  <c:v>3152.073732718894</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1681.5597075548333</c:v>
+                  <c:v>3155.4878048780488</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1682.5141015310232</c:v>
+                  <c:v>3158.8502269288956</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1683.453237410072</c:v>
+                  <c:v>3162.1621621621621</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1684.377478191911</c:v>
+                  <c:v>3165.4247391952313</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1685.2871754523997</c:v>
+                  <c:v>3168.6390532544378</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1686.1826697892272</c:v>
+                  <c:v>3171.8061674008809</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1694.4243301955103</c:v>
+                  <c:v>3201.0943912448702</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1701.5530047265361</c:v>
+                  <c:v>3226.6325224071707</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1707.7798861480076</c:v>
+                  <c:v>3249.0974729241875</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1713.2659131469366</c:v>
+                  <c:v>3269.0124858115778</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1718.1358787198203</c:v>
+                  <c:v>3286.7883995703546</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1722.488038277512</c:v>
+                  <c:v>3302.7522935779816</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1726.4008076728926</c:v>
+                  <c:v>3317.1677982541219</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1729.9375300336378</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>1733.1499312242092</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>1736.0806663743972</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1738.765224695506</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>1741.2333736396615</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1743.510267338241</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>1745.6173069750093</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1747.5728155339805</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1749.392572023603</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>1751.0902381751091</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>1752.6777020447907</c:v>
+                  <c:v>3330.249768732655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,11 +1047,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="108018544"/>
-        <c:axId val="108019104"/>
+        <c:axId val="127144592"/>
+        <c:axId val="127145152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108018544"/>
+        <c:axId val="127144592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,12 +1108,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108019104"/>
+        <c:crossAx val="127145152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108019104"/>
+        <c:axId val="127145152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1200,7 +1170,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108018544"/>
+        <c:crossAx val="127144592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1809,16 +1779,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2103,1822 +2073,2385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D139"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <f t="shared" ref="C2:C10" si="0">(B2/1.8+4.5)/(B2/3.6)</f>
-        <v>18.2</v>
-      </c>
-      <c r="D2" s="3">
-        <f t="shared" ref="D2:D10" si="1">3600/C2</f>
-        <v>197.80219780219781</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="3">
+        <f>B2/3.6*$A$2</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="D2" s="1">
+        <f>(C2+4.5)/(B2/3.6)</f>
+        <v>17.2</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:E10" si="0">3600/D2</f>
+        <v>209.30232558139537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <f t="shared" si="0"/>
-        <v>10.1</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" si="1"/>
-        <v>356.43564356435644</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C66" si="1">B3/3.6*$A$2</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D66" si="2">(C3+4.5)/(B3/3.6)</f>
+        <v>9.1</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E66" si="3">3600/D3</f>
+        <v>395.60439560439562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <f t="shared" si="0"/>
-        <v>7.4</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="1"/>
-        <v>486.48648648648646</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="3"/>
+        <v>562.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <f t="shared" si="0"/>
-        <v>6.05</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="1"/>
-        <v>595.04132231404958</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="2"/>
+        <v>5.05</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="3"/>
+        <v>712.87128712871288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>5.24</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="1"/>
-        <v>687.02290076335873</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.24</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="3"/>
+        <v>849.05660377358481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>4.7</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="1"/>
-        <v>765.95744680851055</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="3"/>
+        <v>972.97297297297291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>4.3142857142857149</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="1"/>
-        <v>834.43708609271505</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9444444444444444</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="2"/>
+        <v>3.3142857142857145</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="3"/>
+        <v>1086.206896551724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>4.0249999999999995</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>894.4099378881989</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="2"/>
+        <v>3.0249999999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="3"/>
+        <v>1190.0826446280992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>3.8</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="1"/>
-        <v>947.36842105263167</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="2"/>
+        <v>2.8</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="3"/>
+        <v>1285.7142857142858</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
-        <f>(B11/1.8+4.5)/(B11/3.6)</f>
-        <v>3.62</v>
-      </c>
-      <c r="D11" s="3">
-        <f>3600/C11</f>
-        <v>994.47513812154693</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <f t="shared" si="1"/>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="2"/>
+        <v>2.62</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="3"/>
+        <v>1374.0458015267175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
-        <f t="shared" ref="C12:C75" si="2">(B12/1.8+4.5)/(B12/3.6)</f>
-        <v>3.4727272727272727</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D75" si="3">3600/C12</f>
-        <v>1036.6492146596859</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <f t="shared" si="1"/>
+        <v>3.0555555555555554</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4727272727272727</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="3"/>
+        <v>1455.8823529411766</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
-        <f t="shared" si="2"/>
-        <v>3.35</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="3"/>
-        <v>1074.6268656716418</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="3">
+        <f t="shared" si="1"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="2"/>
+        <v>2.35</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="3"/>
+        <v>1531.9148936170211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
-        <f t="shared" si="2"/>
-        <v>3.2461538461538457</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="3"/>
-        <v>1109.004739336493</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <f t="shared" si="1"/>
+        <v>3.6111111111111112</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2461538461538462</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="3"/>
+        <v>1602.7397260273972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
-        <f t="shared" si="2"/>
-        <v>3.1571428571428575</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="3"/>
-        <v>1140.2714932126696</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
+        <f t="shared" si="1"/>
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1571428571428575</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="3"/>
+        <v>1668.8741721854301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>15</v>
       </c>
-      <c r="C16" s="1">
-        <f t="shared" si="2"/>
-        <v>3.08</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="3"/>
-        <v>1168.8311688311687</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <f t="shared" si="1"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="2"/>
+        <v>2.08</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="3"/>
+        <v>1730.7692307692307</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>16</v>
       </c>
-      <c r="C17" s="1">
-        <f t="shared" si="2"/>
-        <v>3.0124999999999997</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="3"/>
-        <v>1195.0207468879669</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="3">
+        <f t="shared" si="1"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0124999999999997</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="3"/>
+        <v>1788.8198757763978</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>17</v>
       </c>
-      <c r="C18" s="1">
-        <f t="shared" si="2"/>
-        <v>2.9529411764705884</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="3"/>
-        <v>1219.1235059760957</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="3">
+        <f t="shared" si="1"/>
+        <v>4.7222222222222223</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="2"/>
+        <v>1.952941176470588</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="3"/>
+        <v>1843.3734939759038</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>18</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" si="2"/>
-        <v>2.9</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="3"/>
-        <v>1241.3793103448277</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="3"/>
+        <v>1894.7368421052633</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>19</v>
       </c>
-      <c r="C20" s="1">
-        <f t="shared" si="2"/>
-        <v>2.8526315789473684</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="3"/>
-        <v>1261.9926199261993</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="3">
+        <f t="shared" si="1"/>
+        <v>5.2777777777777777</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8526315789473686</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="3"/>
+        <v>1943.181818181818</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="C21" s="1">
-        <f t="shared" si="2"/>
-        <v>2.81</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="3"/>
-        <v>1281.1387900355871</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="3">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>1.81</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="3"/>
+        <v>1988.9502762430939</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>21</v>
       </c>
-      <c r="C22" s="1">
-        <f t="shared" si="2"/>
-        <v>2.7714285714285714</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="3"/>
-        <v>1298.9690721649486</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="3">
+        <f t="shared" si="1"/>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7714285714285714</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="3"/>
+        <v>2032.258064516129</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>22</v>
       </c>
-      <c r="C23" s="1">
-        <f t="shared" si="2"/>
-        <v>2.7363636363636363</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="3"/>
-        <v>1315.6146179401994</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="3">
+        <f t="shared" si="1"/>
+        <v>6.1111111111111107</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7363636363636363</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="3"/>
+        <v>2073.2984293193717</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>23</v>
       </c>
-      <c r="C24" s="1">
-        <f t="shared" si="2"/>
-        <v>2.7043478260869569</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="3"/>
-        <v>1331.1897106109323</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="3">
+        <f t="shared" si="1"/>
+        <v>6.3888888888888884</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7043478260869567</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="3"/>
+        <v>2112.2448979591836</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>24</v>
       </c>
-      <c r="C25" s="1">
-        <f t="shared" si="2"/>
-        <v>2.6750000000000003</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="3"/>
-        <v>1345.7943925233644</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="2"/>
+        <v>1.675</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="3"/>
+        <v>2149.2537313432836</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>25</v>
       </c>
-      <c r="C26" s="1">
-        <f t="shared" si="2"/>
-        <v>2.6480000000000001</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="3"/>
-        <v>1359.5166163141994</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="3">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="3"/>
+        <v>2184.4660194174758</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>26</v>
       </c>
-      <c r="C27" s="1">
-        <f t="shared" si="2"/>
-        <v>2.6230769230769226</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="3"/>
-        <v>1372.4340175953082</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="3">
+        <f t="shared" si="1"/>
+        <v>7.2222222222222223</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6230769230769229</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="3"/>
+        <v>2218.009478672986</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>27</v>
       </c>
-      <c r="C28" s="1">
-        <f t="shared" si="2"/>
-        <v>2.6</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" si="3"/>
-        <v>1384.6153846153845</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="3">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="3"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>28</v>
       </c>
-      <c r="C29" s="1">
-        <f t="shared" si="2"/>
-        <v>2.5785714285714287</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" si="3"/>
-        <v>1396.1218836565097</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7777777777777777</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5785714285714287</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="3"/>
+        <v>2280.5429864253392</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>29</v>
       </c>
-      <c r="C30" s="1">
-        <f t="shared" si="2"/>
-        <v>2.5586206896551724</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="3"/>
-        <v>1407.0080862533694</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0555555555555554</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5586206896551724</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="3"/>
+        <v>2309.7345132743362</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>30</v>
       </c>
-      <c r="C31" s="1">
-        <f t="shared" si="2"/>
-        <v>2.54</v>
-      </c>
-      <c r="D31" s="3">
-        <f t="shared" si="3"/>
-        <v>1417.3228346456692</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="3">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="2"/>
+        <v>1.54</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="3"/>
+        <v>2337.6623376623374</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>31</v>
       </c>
-      <c r="C32" s="1">
-        <f t="shared" si="2"/>
-        <v>2.5225806451612902</v>
-      </c>
-      <c r="D32" s="3">
-        <f t="shared" si="3"/>
-        <v>1427.1099744245525</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="3">
+        <f t="shared" si="1"/>
+        <v>8.6111111111111107</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5225806451612904</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="3"/>
+        <v>2364.4067796610166</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>32</v>
       </c>
-      <c r="C33" s="1">
-        <f t="shared" si="2"/>
-        <v>2.5062500000000001</v>
-      </c>
-      <c r="D33" s="3">
-        <f t="shared" si="3"/>
-        <v>1436.4089775561097</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="3">
+        <f t="shared" si="1"/>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5062499999999999</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="3"/>
+        <v>2390.0414937759338</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>33</v>
       </c>
-      <c r="C34" s="1">
-        <f t="shared" si="2"/>
-        <v>2.4909090909090907</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" si="3"/>
-        <v>1445.2554744525548</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="3">
+        <f t="shared" si="1"/>
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="2"/>
+        <v>1.490909090909091</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="3"/>
+        <v>2414.6341463414633</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>34</v>
       </c>
-      <c r="C35" s="1">
-        <f t="shared" si="2"/>
-        <v>2.4764705882352942</v>
-      </c>
-      <c r="D35" s="3">
-        <f t="shared" si="3"/>
-        <v>1453.6817102137766</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="3">
+        <f t="shared" si="1"/>
+        <v>9.4444444444444446</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4764705882352942</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="3"/>
+        <v>2438.2470119521913</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>35</v>
       </c>
-      <c r="C36" s="1">
-        <f t="shared" si="2"/>
-        <v>2.4628571428571431</v>
-      </c>
-      <c r="D36" s="3">
-        <f t="shared" si="3"/>
-        <v>1461.7169373549882</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="3">
+        <f t="shared" si="1"/>
+        <v>9.7222222222222214</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4628571428571429</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="3"/>
+        <v>2460.9375</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>36</v>
       </c>
-      <c r="C37" s="1">
-        <f t="shared" si="2"/>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="D37" s="3">
-        <f t="shared" si="3"/>
-        <v>1469.3877551020407</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="2"/>
+        <v>1.45</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="3"/>
+        <v>2482.7586206896553</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>37</v>
       </c>
-      <c r="C38" s="1">
-        <f t="shared" si="2"/>
-        <v>2.4378378378378378</v>
-      </c>
-      <c r="D38" s="3">
-        <f t="shared" si="3"/>
-        <v>1476.7184035476719</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="3">
+        <f t="shared" si="1"/>
+        <v>10.277777777777777</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4378378378378378</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="3"/>
+        <v>2503.7593984962405</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>38</v>
       </c>
-      <c r="C39" s="1">
-        <f t="shared" si="2"/>
-        <v>2.4263157894736844</v>
-      </c>
-      <c r="D39" s="3">
-        <f t="shared" si="3"/>
-        <v>1483.7310195227765</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="3">
+        <f t="shared" si="1"/>
+        <v>10.555555555555555</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4263157894736842</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="3"/>
+        <v>2523.9852398523985</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>39</v>
       </c>
-      <c r="C40" s="1">
-        <f t="shared" si="2"/>
-        <v>2.4153846153846152</v>
-      </c>
-      <c r="D40" s="3">
-        <f t="shared" si="3"/>
-        <v>1490.4458598726117</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="3">
+        <f t="shared" si="1"/>
+        <v>10.833333333333334</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4153846153846155</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="3"/>
+        <v>2543.478260869565</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>40</v>
       </c>
-      <c r="C41" s="1">
-        <f t="shared" si="2"/>
-        <v>2.4049999999999998</v>
-      </c>
-      <c r="D41" s="3">
-        <f t="shared" si="3"/>
-        <v>1496.881496881497</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="3">
+        <f t="shared" si="1"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="2"/>
+        <v>1.405</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="3"/>
+        <v>2562.2775800711743</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>41</v>
       </c>
-      <c r="C42" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3951219512195121</v>
-      </c>
-      <c r="D42" s="3">
-        <f t="shared" si="3"/>
-        <v>1503.0549898167008</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="3">
+        <f t="shared" si="1"/>
+        <v>11.388888888888889</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3951219512195121</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="3"/>
+        <v>2580.4195804195806</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>42</v>
       </c>
-      <c r="C43" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3857142857142857</v>
-      </c>
-      <c r="D43" s="3">
-        <f t="shared" si="3"/>
-        <v>1508.9820359281437</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="3">
+        <f t="shared" si="1"/>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3857142857142857</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="3"/>
+        <v>2597.9381443298971</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>43</v>
       </c>
-      <c r="C44" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3767441860465115</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" si="3"/>
-        <v>1514.6771037181998</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="3">
+        <f t="shared" si="1"/>
+        <v>11.944444444444445</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3767441860465115</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="3"/>
+        <v>2614.864864864865</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>44</v>
       </c>
-      <c r="C45" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3681818181818182</v>
-      </c>
-      <c r="D45" s="3">
-        <f t="shared" si="3"/>
-        <v>1520.1535508637237</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="3">
+        <f t="shared" si="1"/>
+        <v>12.222222222222221</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3681818181818182</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="3"/>
+        <v>2631.2292358803988</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>45</v>
       </c>
-      <c r="C46" s="1">
-        <f t="shared" si="2"/>
-        <v>2.36</v>
-      </c>
-      <c r="D46" s="3">
-        <f t="shared" si="3"/>
-        <v>1525.4237288135594</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="3">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="2"/>
+        <v>1.36</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="3"/>
+        <v>2647.0588235294117</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>46</v>
       </c>
-      <c r="C47" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3521739130434782</v>
-      </c>
-      <c r="D47" s="3">
-        <f t="shared" si="3"/>
-        <v>1530.4990757855824</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="3">
+        <f t="shared" si="1"/>
+        <v>12.777777777777777</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3521739130434784</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="3"/>
+        <v>2662.3794212218645</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>47</v>
       </c>
-      <c r="C48" s="1">
-        <f t="shared" si="2"/>
-        <v>2.34468085106383</v>
-      </c>
-      <c r="D48" s="3">
-        <f t="shared" si="3"/>
-        <v>1535.3901996370234</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="3">
+        <f t="shared" si="1"/>
+        <v>13.055555555555555</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="2"/>
+        <v>1.34468085106383</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="3"/>
+        <v>2677.2151898734173</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>48</v>
       </c>
-      <c r="C49" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3374999999999999</v>
-      </c>
-      <c r="D49" s="3">
-        <f t="shared" si="3"/>
-        <v>1540.1069518716579</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="3">
+        <f t="shared" si="1"/>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3375000000000001</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="3"/>
+        <v>2691.5887850467288</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <v>49</v>
       </c>
-      <c r="C50" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3306122448979592</v>
-      </c>
-      <c r="D50" s="3">
-        <f t="shared" si="3"/>
-        <v>1544.6584938704029</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="3">
+        <f t="shared" si="1"/>
+        <v>13.611111111111111</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3306122448979592</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="3"/>
+        <v>2705.5214723926383</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>50</v>
       </c>
-      <c r="C51" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3239999999999998</v>
-      </c>
-      <c r="D51" s="3">
-        <f t="shared" si="3"/>
-        <v>1549.053356282272</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="3">
+        <f t="shared" si="1"/>
+        <v>13.888888888888889</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="3"/>
+        <v>2719.0332326283988</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <v>51</v>
       </c>
-      <c r="C52" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3176470588235292</v>
-      </c>
-      <c r="D52" s="3">
-        <f t="shared" si="3"/>
-        <v>1553.2994923857871</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="3">
+        <f t="shared" si="1"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3176470588235294</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="3"/>
+        <v>2732.1428571428573</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>52</v>
       </c>
-      <c r="C53" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3115384615384613</v>
-      </c>
-      <c r="D53" s="3">
-        <f t="shared" si="3"/>
-        <v>1557.4043261231282</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="3">
+        <f t="shared" si="1"/>
+        <v>14.444444444444445</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3115384615384613</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="3"/>
+        <v>2744.8680351906164</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <v>53</v>
       </c>
-      <c r="C54" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3056603773584907</v>
-      </c>
-      <c r="D54" s="3">
-        <f t="shared" si="3"/>
-        <v>1561.3747954173484</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="3">
+        <f t="shared" si="1"/>
+        <v>14.722222222222221</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3056603773584905</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="3"/>
+        <v>2757.2254335260118</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>54</v>
       </c>
-      <c r="C55" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D55" s="3">
-        <f t="shared" si="3"/>
-        <v>1565.217391304348</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="3"/>
+        <v>2769.2307692307691</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <v>55</v>
       </c>
-      <c r="C56" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2945454545454549</v>
-      </c>
-      <c r="D56" s="3">
-        <f t="shared" si="3"/>
-        <v>1568.9381933438983</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="3">
+        <f t="shared" si="1"/>
+        <v>15.277777777777777</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2945454545454547</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" si="3"/>
+        <v>2780.8988764044943</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <v>56</v>
       </c>
-      <c r="C57" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2892857142857146</v>
-      </c>
-      <c r="D57" s="3">
-        <f t="shared" si="3"/>
-        <v>1572.5429017160684</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="3">
+        <f t="shared" si="1"/>
+        <v>15.555555555555555</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2892857142857144</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" si="3"/>
+        <v>2792.2437673130194</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <v>57</v>
       </c>
-      <c r="C58" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2842105263157895</v>
-      </c>
-      <c r="D58" s="3">
-        <f t="shared" si="3"/>
-        <v>1576.036866359447</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="3">
+        <f t="shared" si="1"/>
+        <v>15.833333333333332</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2842105263157895</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="3"/>
+        <v>2803.2786885245901</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <v>58</v>
       </c>
-      <c r="C59" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2793103448275862</v>
-      </c>
-      <c r="D59" s="3">
-        <f t="shared" si="3"/>
-        <v>1579.4251134644478</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="3">
+        <f t="shared" si="1"/>
+        <v>16.111111111111111</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2793103448275862</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="3"/>
+        <v>2814.0161725067387</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <v>59</v>
       </c>
-      <c r="C60" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2745762711864406</v>
-      </c>
-      <c r="D60" s="3">
-        <f t="shared" si="3"/>
-        <v>1582.7123695976156</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="3">
+        <f t="shared" si="1"/>
+        <v>16.388888888888889</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2745762711864406</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="3"/>
+        <v>2824.4680851063831</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <v>60</v>
       </c>
-      <c r="C61" s="1">
-        <f t="shared" si="2"/>
-        <v>2.27</v>
-      </c>
-      <c r="D61" s="3">
-        <f t="shared" si="3"/>
-        <v>1585.9030837004404</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="3">
+        <f t="shared" si="1"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="2"/>
+        <v>1.27</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="3"/>
+        <v>2834.6456692913384</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <v>61</v>
       </c>
-      <c r="C62" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2655737704918031</v>
-      </c>
-      <c r="D62" s="3">
-        <f t="shared" si="3"/>
-        <v>1589.001447178003</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="3">
+        <f t="shared" si="1"/>
+        <v>16.944444444444443</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2655737704918033</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" si="3"/>
+        <v>2844.5595854922281</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <v>62</v>
       </c>
-      <c r="C63" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2612903225806451</v>
-      </c>
-      <c r="D63" s="3">
-        <f t="shared" si="3"/>
-        <v>1592.0114122681885</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="3">
+        <f t="shared" si="1"/>
+        <v>17.222222222222221</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2612903225806451</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="3"/>
+        <v>2854.2199488491051</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <v>63</v>
       </c>
-      <c r="C64" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2571428571428571</v>
-      </c>
-      <c r="D64" s="3">
-        <f t="shared" si="3"/>
-        <v>1594.9367088607596</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="3">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2571428571428571</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="3"/>
+        <v>2863.6363636363635</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <v>64</v>
       </c>
-      <c r="C65" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2531249999999998</v>
-      </c>
-      <c r="D65" s="3">
-        <f t="shared" si="3"/>
-        <v>1597.7808599167824</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="3">
+        <f t="shared" si="1"/>
+        <v>17.777777777777779</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="2"/>
+        <v>1.253125</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="3"/>
+        <v>2872.8179551122194</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
         <v>65</v>
       </c>
-      <c r="C66" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2492307692307691</v>
-      </c>
-      <c r="D66" s="3">
-        <f t="shared" si="3"/>
-        <v>1600.5471956224351</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="3">
+        <f t="shared" si="1"/>
+        <v>18.055555555555554</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2492307692307694</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" si="3"/>
+        <v>2881.7733990147781</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
         <v>66</v>
       </c>
-      <c r="C67" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2454545454545456</v>
-      </c>
-      <c r="D67" s="3">
-        <f t="shared" si="3"/>
-        <v>1603.2388663967611</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="3">
+        <f t="shared" ref="C67:C130" si="4">B67/3.6*$A$2</f>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" ref="D67:D130" si="5">(C67+4.5)/(B67/3.6)</f>
+        <v>1.2454545454545454</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" ref="E67:E130" si="6">3600/D67</f>
+        <v>2890.5109489051097</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <v>67</v>
       </c>
-      <c r="C68" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2417910447761193</v>
-      </c>
-      <c r="D68" s="3">
-        <f t="shared" si="3"/>
-        <v>1605.8588548601865</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="3">
+        <f t="shared" si="4"/>
+        <v>18.611111111111111</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2417910447761193</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" si="6"/>
+        <v>2899.0384615384619</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
         <v>68</v>
       </c>
-      <c r="C69" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2382352941176471</v>
-      </c>
-      <c r="D69" s="3">
-        <f t="shared" si="3"/>
-        <v>1608.4099868593955</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="3">
+        <f t="shared" si="4"/>
+        <v>18.888888888888889</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2382352941176471</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="6"/>
+        <v>2907.3634204275531</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
         <v>69</v>
       </c>
-      <c r="C70" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2347826086956522</v>
-      </c>
-      <c r="D70" s="3">
-        <f t="shared" si="3"/>
-        <v>1610.8949416342411</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="3">
+        <f t="shared" si="4"/>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2347826086956522</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" si="6"/>
+        <v>2915.4929577464791</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <v>70</v>
       </c>
-      <c r="C71" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2314285714285713</v>
-      </c>
-      <c r="D71" s="3">
-        <f t="shared" si="3"/>
-        <v>1613.3162612035853</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="3">
+        <f t="shared" si="4"/>
+        <v>19.444444444444443</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2314285714285715</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" si="6"/>
+        <v>2923.4338747099764</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
         <v>71</v>
       </c>
-      <c r="C72" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2281690140845072</v>
-      </c>
-      <c r="D72" s="3">
-        <f t="shared" si="3"/>
-        <v>1615.6763590391909</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="3">
+        <f t="shared" si="4"/>
+        <v>19.722222222222221</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="5"/>
+        <v>1.228169014084507</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" si="6"/>
+        <v>2931.1926605504591</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
         <v>72</v>
       </c>
-      <c r="C73" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2250000000000001</v>
-      </c>
-      <c r="D73" s="3">
-        <f t="shared" si="3"/>
-        <v>1617.9775280898875</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="3">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="E73" s="3">
+        <f t="shared" si="6"/>
+        <v>2938.7755102040815</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
         <v>73</v>
       </c>
-      <c r="C74" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2219178082191782</v>
-      </c>
-      <c r="D74" s="3">
-        <f t="shared" si="3"/>
-        <v>1620.2219482120838</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="3">
+        <f t="shared" si="4"/>
+        <v>20.277777777777779</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2219178082191782</v>
+      </c>
+      <c r="E74" s="3">
+        <f t="shared" si="6"/>
+        <v>2946.1883408071749</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <v>74</v>
       </c>
-      <c r="C75" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2189189189189191</v>
-      </c>
-      <c r="D75" s="3">
-        <f t="shared" si="3"/>
-        <v>1622.411693057247</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="3">
+        <f t="shared" si="4"/>
+        <v>20.555555555555554</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2189189189189189</v>
+      </c>
+      <c r="E75" s="3">
+        <f t="shared" si="6"/>
+        <v>2953.4368070953437</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
         <v>75</v>
       </c>
-      <c r="C76" s="1">
-        <f t="shared" ref="C76:C110" si="4">(B76/1.8+4.5)/(B76/3.6)</f>
-        <v>2.2160000000000002</v>
-      </c>
-      <c r="D76" s="3">
-        <f t="shared" ref="D76:D110" si="5">3600/C76</f>
-        <v>1624.5487364620938</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="3">
+        <f t="shared" si="4"/>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="5"/>
+        <v>1.216</v>
+      </c>
+      <c r="E76" s="3">
+        <f t="shared" si="6"/>
+        <v>2960.5263157894738</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <v>76</v>
       </c>
-      <c r="C77" s="1">
-        <f t="shared" si="4"/>
-        <v>2.2131578947368422</v>
-      </c>
-      <c r="D77" s="3">
-        <f t="shared" si="5"/>
-        <v>1626.6349583828774</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="3">
+        <f t="shared" si="4"/>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2131578947368422</v>
+      </c>
+      <c r="E77" s="3">
+        <f t="shared" si="6"/>
+        <v>2967.462039045553</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <v>77</v>
       </c>
-      <c r="C78" s="1">
-        <f t="shared" si="4"/>
-        <v>2.2103896103896106</v>
-      </c>
-      <c r="D78" s="3">
-        <f t="shared" si="5"/>
-        <v>1628.6721504112807</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="3">
+        <f t="shared" si="4"/>
+        <v>21.388888888888889</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2103896103896103</v>
+      </c>
+      <c r="E78" s="3">
+        <f t="shared" si="6"/>
+        <v>2974.2489270386268</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
         <v>78</v>
       </c>
-      <c r="C79" s="1">
-        <f t="shared" si="4"/>
-        <v>2.2076923076923078</v>
-      </c>
-      <c r="D79" s="3">
-        <f t="shared" si="5"/>
-        <v>1630.6620209059233</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="3">
+        <f t="shared" si="4"/>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2076923076923076</v>
+      </c>
+      <c r="E79" s="3">
+        <f t="shared" si="6"/>
+        <v>2980.8917197452233</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <v>79</v>
       </c>
-      <c r="C80" s="1">
-        <f t="shared" si="4"/>
-        <v>2.2050632911392407</v>
-      </c>
-      <c r="D80" s="3">
-        <f t="shared" si="5"/>
-        <v>1632.6061997703787</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="3">
+        <f t="shared" si="4"/>
+        <v>21.944444444444443</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2050632911392405</v>
+      </c>
+      <c r="E80" s="3">
+        <f t="shared" si="6"/>
+        <v>2987.3949579831933</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
         <v>80</v>
       </c>
-      <c r="C81" s="1">
-        <f t="shared" si="4"/>
-        <v>2.2025000000000001</v>
-      </c>
-      <c r="D81" s="3">
-        <f t="shared" si="5"/>
-        <v>1634.5062429057889</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="3">
+        <f t="shared" si="4"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2024999999999999</v>
+      </c>
+      <c r="E81" s="3">
+        <f t="shared" si="6"/>
+        <v>2993.762993762994</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
         <v>81</v>
       </c>
-      <c r="C82" s="1">
-        <f t="shared" si="4"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D82" s="3">
-        <f t="shared" si="5"/>
-        <v>1636.3636363636363</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="3">
+        <f t="shared" si="4"/>
+        <v>22.5</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="E82" s="3">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
         <v>82</v>
       </c>
-      <c r="C83" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1975609756097563</v>
-      </c>
-      <c r="D83" s="3">
-        <f t="shared" si="5"/>
-        <v>1638.1798002219755</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="3">
+        <f t="shared" si="4"/>
+        <v>22.777777777777779</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1975609756097561</v>
+      </c>
+      <c r="E83" s="3">
+        <f t="shared" si="6"/>
+        <v>3006.1099796334015</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
         <v>83</v>
       </c>
-      <c r="C84" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1951807228915663</v>
-      </c>
-      <c r="D84" s="3">
-        <f t="shared" si="5"/>
-        <v>1639.9560922063665</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="3">
+        <f t="shared" si="4"/>
+        <v>23.055555555555554</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1951807228915663</v>
+      </c>
+      <c r="E84" s="3">
+        <f t="shared" si="6"/>
+        <v>3012.0967741935483</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <v>84</v>
       </c>
-      <c r="C85" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1928571428571431</v>
-      </c>
-      <c r="D85" s="3">
-        <f t="shared" si="5"/>
-        <v>1641.6938110749184</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="3">
+        <f t="shared" si="4"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1928571428571428</v>
+      </c>
+      <c r="E85" s="3">
+        <f t="shared" si="6"/>
+        <v>3017.9640718562873</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
         <v>85</v>
       </c>
-      <c r="C86" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1905882352941175</v>
-      </c>
-      <c r="D86" s="3">
-        <f t="shared" si="5"/>
-        <v>1643.3941997851773</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="3">
+        <f t="shared" si="4"/>
+        <v>23.611111111111111</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1905882352941177</v>
+      </c>
+      <c r="E86" s="3">
+        <f t="shared" si="6"/>
+        <v>3023.7154150197625</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
         <v>86</v>
       </c>
-      <c r="C87" s="1">
-        <f t="shared" si="4"/>
-        <v>2.188372093023256</v>
-      </c>
-      <c r="D87" s="3">
-        <f t="shared" si="5"/>
-        <v>1645.0584484590859</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="3">
+        <f t="shared" si="4"/>
+        <v>23.888888888888889</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1883720930232557</v>
+      </c>
+      <c r="E87" s="3">
+        <f t="shared" si="6"/>
+        <v>3029.3542074363995</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="2">
         <v>87</v>
       </c>
-      <c r="C88" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1862068965517243</v>
-      </c>
-      <c r="D88" s="3">
-        <f t="shared" si="5"/>
-        <v>1646.6876971608831</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="3">
+        <f t="shared" si="4"/>
+        <v>24.166666666666664</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1862068965517241</v>
+      </c>
+      <c r="E88" s="3">
+        <f t="shared" si="6"/>
+        <v>3034.8837209302328</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="2">
         <v>88</v>
       </c>
-      <c r="C89" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1840909090909091</v>
-      </c>
-      <c r="D89" s="3">
-        <f t="shared" si="5"/>
-        <v>1648.2830385015609</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="3">
+        <f t="shared" si="4"/>
+        <v>24.444444444444443</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1840909090909091</v>
+      </c>
+      <c r="E89" s="3">
+        <f t="shared" si="6"/>
+        <v>3040.3071017274474</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="2">
         <v>89</v>
       </c>
-      <c r="C90" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1820224719101122</v>
-      </c>
-      <c r="D90" s="3">
-        <f t="shared" si="5"/>
-        <v>1649.8455200823894</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C90" s="3">
+        <f t="shared" si="4"/>
+        <v>24.722222222222221</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1820224719101124</v>
+      </c>
+      <c r="E90" s="3">
+        <f t="shared" si="6"/>
+        <v>3045.6273764258553</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
         <v>90</v>
       </c>
-      <c r="C91" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="D91" s="3">
-        <f t="shared" si="5"/>
-        <v>1651.3761467889908</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C91" s="3">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="5"/>
+        <v>1.18</v>
+      </c>
+      <c r="E91" s="3">
+        <f t="shared" si="6"/>
+        <v>3050.8474576271187</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="2">
         <v>91</v>
       </c>
-      <c r="C92" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1780219780219778</v>
-      </c>
-      <c r="D92" s="3">
-        <f t="shared" si="5"/>
-        <v>1652.8758829465189</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="3">
+        <f t="shared" si="4"/>
+        <v>25.277777777777779</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1780219780219781</v>
+      </c>
+      <c r="E92" s="3">
+        <f t="shared" si="6"/>
+        <v>3055.9701492537311</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
         <v>92</v>
       </c>
-      <c r="C93" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1760869565217393</v>
-      </c>
-      <c r="D93" s="3">
-        <f t="shared" si="5"/>
-        <v>1654.3456543456541</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="3">
+        <f t="shared" si="4"/>
+        <v>25.555555555555554</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1760869565217391</v>
+      </c>
+      <c r="E93" s="3">
+        <f t="shared" si="6"/>
+        <v>3060.9981515711647</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="2">
         <v>93</v>
       </c>
-      <c r="C94" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1741935483870969</v>
-      </c>
-      <c r="D94" s="3">
-        <f t="shared" si="5"/>
-        <v>1655.7863501483678</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="3">
+        <f t="shared" si="4"/>
+        <v>25.833333333333332</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1741935483870969</v>
+      </c>
+      <c r="E94" s="3">
+        <f t="shared" si="6"/>
+        <v>3065.9340659340655</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
         <v>94</v>
       </c>
-      <c r="C95" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1723404255319148</v>
-      </c>
-      <c r="D95" s="3">
-        <f t="shared" si="5"/>
-        <v>1657.1988246816848</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="3">
+        <f t="shared" si="4"/>
+        <v>26.111111111111111</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="5"/>
+        <v>1.172340425531915</v>
+      </c>
+      <c r="E95" s="3">
+        <f t="shared" si="6"/>
+        <v>3070.7803992740469</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
         <v>95</v>
       </c>
-      <c r="C96" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1705263157894739</v>
-      </c>
-      <c r="D96" s="3">
-        <f t="shared" si="5"/>
-        <v>1658.5838991270609</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="3">
+        <f t="shared" si="4"/>
+        <v>26.388888888888889</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1705263157894736</v>
+      </c>
+      <c r="E96" s="3">
+        <f t="shared" si="6"/>
+        <v>3075.5395683453239</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
         <v>96</v>
       </c>
-      <c r="C97" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1687500000000002</v>
-      </c>
-      <c r="D97" s="3">
-        <f t="shared" si="5"/>
-        <v>1659.9423631123918</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="3">
+        <f t="shared" si="4"/>
+        <v>26.666666666666664</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="5"/>
+        <v>1.16875</v>
+      </c>
+      <c r="E97" s="3">
+        <f t="shared" si="6"/>
+        <v>3080.2139037433158</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="2">
         <v>97</v>
       </c>
-      <c r="C98" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1670103092783504</v>
-      </c>
-      <c r="D98" s="3">
-        <f t="shared" si="5"/>
-        <v>1661.2749762131305</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="3">
+        <f t="shared" si="4"/>
+        <v>26.944444444444443</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1670103092783506</v>
+      </c>
+      <c r="E98" s="3">
+        <f t="shared" si="6"/>
+        <v>3084.805653710247</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
         <v>98</v>
       </c>
-      <c r="C99" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1653061224489796</v>
-      </c>
-      <c r="D99" s="3">
-        <f t="shared" si="5"/>
-        <v>1662.5824693685204</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="3">
+        <f t="shared" si="4"/>
+        <v>27.222222222222221</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1653061224489796</v>
+      </c>
+      <c r="E99" s="3">
+        <f t="shared" si="6"/>
+        <v>3089.3169877408059</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" s="2">
         <v>99</v>
       </c>
-      <c r="C100" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1636363636363636</v>
-      </c>
-      <c r="D100" s="3">
-        <f t="shared" si="5"/>
-        <v>1663.8655462184875</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="3">
+        <f t="shared" si="4"/>
+        <v>27.5</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1636363636363636</v>
+      </c>
+      <c r="E100" s="3">
+        <f t="shared" si="6"/>
+        <v>3093.75</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="2">
         <v>100</v>
       </c>
-      <c r="C101" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1619999999999999</v>
-      </c>
-      <c r="D101" s="3">
-        <f t="shared" si="5"/>
-        <v>1665.1248843663275</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C101" s="3">
+        <f t="shared" si="4"/>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="E101" s="3">
+        <f t="shared" si="6"/>
+        <v>3098.1067125645441</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="2">
         <v>101</v>
       </c>
-      <c r="C102" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1603960396039605</v>
-      </c>
-      <c r="D102" s="3">
-        <f t="shared" si="5"/>
-        <v>1666.3611365719523</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C102" s="3">
+        <f t="shared" si="4"/>
+        <v>28.055555555555554</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1603960396039605</v>
+      </c>
+      <c r="E102" s="3">
+        <f t="shared" si="6"/>
+        <v>3102.3890784982932</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="2">
         <v>102</v>
       </c>
-      <c r="C103" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1588235294117646</v>
-      </c>
-      <c r="D103" s="3">
-        <f t="shared" si="5"/>
-        <v>1667.574931880109</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C103" s="3">
+        <f t="shared" si="4"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1588235294117646</v>
+      </c>
+      <c r="E103" s="3">
+        <f t="shared" si="6"/>
+        <v>3106.5989847715741</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="2">
         <v>103</v>
       </c>
-      <c r="C104" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1572815533980583</v>
-      </c>
-      <c r="D104" s="3">
-        <f t="shared" si="5"/>
-        <v>1668.7668766876689</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="3">
+        <f t="shared" si="4"/>
+        <v>28.611111111111111</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1572815533980583</v>
+      </c>
+      <c r="E104" s="3">
+        <f t="shared" si="6"/>
+        <v>3110.7382550335569</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="2">
         <v>104</v>
       </c>
-      <c r="C105" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1557692307692307</v>
-      </c>
-      <c r="D105" s="3">
-        <f t="shared" si="5"/>
-        <v>1669.9375557537912</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C105" s="3">
+        <f t="shared" si="4"/>
+        <v>28.888888888888889</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1557692307692307</v>
+      </c>
+      <c r="E105" s="3">
+        <f t="shared" si="6"/>
+        <v>3114.8086522462563</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="2">
         <v>105</v>
       </c>
-      <c r="C106" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1542857142857144</v>
-      </c>
-      <c r="D106" s="3">
-        <f t="shared" si="5"/>
-        <v>1671.0875331564987</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C106" s="3">
+        <f t="shared" si="4"/>
+        <v>29.166666666666664</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1542857142857144</v>
+      </c>
+      <c r="E106" s="3">
+        <f t="shared" si="6"/>
+        <v>3118.8118811881186</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="2">
         <v>106</v>
       </c>
-      <c r="C107" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1528301886792454</v>
-      </c>
-      <c r="D107" s="3">
-        <f t="shared" si="5"/>
-        <v>1672.2173531989483</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C107" s="3">
+        <f t="shared" si="4"/>
+        <v>29.444444444444443</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1528301886792454</v>
+      </c>
+      <c r="E107" s="3">
+        <f t="shared" si="6"/>
+        <v>3122.7495908346968</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" s="2">
         <v>107</v>
       </c>
-      <c r="C108" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1514018691588785</v>
-      </c>
-      <c r="D108" s="3">
-        <f t="shared" si="5"/>
-        <v>1673.3275412684623</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C108" s="3">
+        <f t="shared" si="4"/>
+        <v>29.722222222222221</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1514018691588785</v>
+      </c>
+      <c r="E108" s="3">
+        <f t="shared" si="6"/>
+        <v>3126.6233766233763</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="2">
         <v>108</v>
       </c>
-      <c r="C109" s="1">
-        <f t="shared" si="4"/>
-        <v>2.15</v>
-      </c>
-      <c r="D109" s="3">
-        <f t="shared" si="5"/>
-        <v>1674.4186046511629</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C109" s="3">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E109" s="3">
+        <f t="shared" si="6"/>
+        <v>3130.434782608696</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="2">
         <v>109</v>
       </c>
-      <c r="C110" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1486238532110091</v>
-      </c>
-      <c r="D110" s="3">
-        <f t="shared" si="5"/>
-        <v>1675.4910333048676</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C110" s="3">
+        <f t="shared" si="4"/>
+        <v>30.277777777777779</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1486238532110091</v>
+      </c>
+      <c r="E110" s="3">
+        <f t="shared" si="6"/>
+        <v>3134.1853035143772</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="2">
         <v>110</v>
       </c>
-      <c r="C111" s="1">
-        <f>(B111/1.8+4.5)/(B111/3.6)</f>
-        <v>2.1472727272727274</v>
-      </c>
-      <c r="D111" s="3">
-        <f>3600/C111</f>
-        <v>1676.5453005927179</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C111" s="3">
+        <f t="shared" si="4"/>
+        <v>30.555555555555554</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1472727272727274</v>
+      </c>
+      <c r="E111" s="3">
+        <f t="shared" si="6"/>
+        <v>3137.8763866877966</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="2">
         <v>111</v>
       </c>
-      <c r="C112" s="1">
-        <f t="shared" ref="C112:C122" si="6">(B112/1.8+4.5)/(B112/3.6)</f>
-        <v>2.1459459459459458</v>
-      </c>
-      <c r="D112" s="3">
-        <f t="shared" ref="D112:D122" si="7">3600/C112</f>
-        <v>1677.581863979849</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C112" s="3">
+        <f t="shared" si="4"/>
+        <v>30.833333333333332</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1459459459459458</v>
+      </c>
+      <c r="E112" s="3">
+        <f t="shared" si="6"/>
+        <v>3141.5094339622647</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="2">
         <v>112</v>
       </c>
-      <c r="C113" s="1">
-        <f t="shared" si="6"/>
-        <v>2.1446428571428573</v>
-      </c>
-      <c r="D113" s="3">
-        <f t="shared" si="7"/>
-        <v>1678.6011656952539</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C113" s="3">
+        <f t="shared" si="4"/>
+        <v>31.111111111111111</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1446428571428573</v>
+      </c>
+      <c r="E113" s="3">
+        <f t="shared" si="6"/>
+        <v>3145.0858034321368</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="2">
         <v>113</v>
       </c>
-      <c r="C114" s="1">
-        <f t="shared" si="6"/>
-        <v>2.1433628318584068</v>
-      </c>
-      <c r="D114" s="3">
-        <f t="shared" si="7"/>
-        <v>1679.603633360859</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C114" s="3">
+        <f t="shared" si="4"/>
+        <v>31.388888888888889</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="5"/>
+        <v>1.143362831858407</v>
+      </c>
+      <c r="E114" s="3">
+        <f t="shared" si="6"/>
+        <v>3148.6068111455111</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="2">
         <v>114</v>
       </c>
-      <c r="C115" s="1">
-        <f t="shared" si="6"/>
-        <v>2.142105263157895</v>
-      </c>
-      <c r="D115" s="3">
-        <f t="shared" si="7"/>
-        <v>1680.5896805896805</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C115" s="3">
+        <f t="shared" si="4"/>
+        <v>31.666666666666664</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1421052631578947</v>
+      </c>
+      <c r="E115" s="3">
+        <f t="shared" si="6"/>
+        <v>3152.073732718894</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" s="2">
         <v>115</v>
       </c>
-      <c r="C116" s="1">
-        <f t="shared" si="6"/>
-        <v>2.1408695652173915</v>
-      </c>
-      <c r="D116" s="3">
-        <f t="shared" si="7"/>
-        <v>1681.5597075548333</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C116" s="3">
+        <f t="shared" si="4"/>
+        <v>31.944444444444443</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1408695652173912</v>
+      </c>
+      <c r="E116" s="3">
+        <f t="shared" si="6"/>
+        <v>3155.4878048780488</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="2">
         <v>116</v>
       </c>
-      <c r="C117" s="1">
-        <f t="shared" si="6"/>
-        <v>2.1396551724137933</v>
-      </c>
-      <c r="D117" s="3">
-        <f t="shared" si="7"/>
-        <v>1682.5141015310232</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C117" s="3">
+        <f t="shared" si="4"/>
+        <v>32.222222222222221</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1396551724137931</v>
+      </c>
+      <c r="E117" s="3">
+        <f t="shared" si="6"/>
+        <v>3158.8502269288956</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="2">
         <v>117</v>
       </c>
-      <c r="C118" s="1">
-        <f t="shared" si="6"/>
-        <v>2.1384615384615384</v>
-      </c>
-      <c r="D118" s="3">
-        <f t="shared" si="7"/>
-        <v>1683.453237410072</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C118" s="3">
+        <f t="shared" si="4"/>
+        <v>32.5</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1384615384615384</v>
+      </c>
+      <c r="E118" s="3">
+        <f t="shared" si="6"/>
+        <v>3162.1621621621621</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" s="2">
         <v>118</v>
       </c>
-      <c r="C119" s="1">
-        <f t="shared" si="6"/>
-        <v>2.1372881355932205</v>
-      </c>
-      <c r="D119" s="3">
-        <f t="shared" si="7"/>
-        <v>1684.377478191911</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C119" s="3">
+        <f t="shared" si="4"/>
+        <v>32.777777777777779</v>
+      </c>
+      <c r="D119" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1372881355932203</v>
+      </c>
+      <c r="E119" s="3">
+        <f t="shared" si="6"/>
+        <v>3165.4247391952313</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="2">
         <v>119</v>
       </c>
-      <c r="C120" s="1">
-        <f t="shared" si="6"/>
-        <v>2.1361344537815126</v>
-      </c>
-      <c r="D120" s="3">
-        <f t="shared" si="7"/>
-        <v>1685.2871754523997</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C120" s="3">
+        <f t="shared" si="4"/>
+        <v>33.055555555555557</v>
+      </c>
+      <c r="D120" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1361344537815126</v>
+      </c>
+      <c r="E120" s="3">
+        <f t="shared" si="6"/>
+        <v>3168.6390532544378</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="2">
         <v>120</v>
       </c>
-      <c r="C121" s="1">
-        <f t="shared" si="6"/>
-        <v>2.1349999999999998</v>
-      </c>
-      <c r="D121" s="3">
-        <f t="shared" si="7"/>
-        <v>1686.1826697892272</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C121" s="3">
+        <f t="shared" si="4"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="D121" s="1">
+        <f t="shared" si="5"/>
+        <v>1.135</v>
+      </c>
+      <c r="E121" s="3">
+        <f t="shared" si="6"/>
+        <v>3171.8061674008809</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" s="2">
         <v>130</v>
       </c>
-      <c r="C122" s="1">
-        <f t="shared" si="6"/>
-        <v>2.1246153846153848</v>
-      </c>
-      <c r="D122" s="3">
-        <f t="shared" si="7"/>
-        <v>1694.4243301955103</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C122" s="3">
+        <f t="shared" si="4"/>
+        <v>36.111111111111107</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1246153846153846</v>
+      </c>
+      <c r="E122" s="3">
+        <f t="shared" si="6"/>
+        <v>3201.0943912448702</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="2">
         <v>140</v>
       </c>
-      <c r="C123" s="1">
-        <f t="shared" ref="C123:C136" si="8">(B123/1.8+4.5)/(B123/3.6)</f>
-        <v>2.1157142857142857</v>
-      </c>
-      <c r="D123" s="3">
-        <f t="shared" ref="D123:D136" si="9">3600/C123</f>
-        <v>1701.5530047265361</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C123" s="3">
+        <f t="shared" si="4"/>
+        <v>38.888888888888886</v>
+      </c>
+      <c r="D123" s="1">
+        <f t="shared" ref="D123:D139" si="7">(C123+4.5)/(B123/3.6)</f>
+        <v>1.1157142857142857</v>
+      </c>
+      <c r="E123" s="3">
+        <f t="shared" ref="E123:E139" si="8">3600/D123</f>
+        <v>3226.6325224071707</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" s="2">
         <v>150</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" s="3">
+        <f t="shared" si="4"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="D124" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="E124" s="3">
         <f t="shared" si="8"/>
-        <v>2.1080000000000001</v>
-      </c>
-      <c r="D124" s="3">
-        <f t="shared" si="9"/>
-        <v>1707.7798861480076</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+        <v>3249.0974729241875</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="2">
         <v>160</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="3">
+        <f t="shared" si="4"/>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1012500000000001</v>
+      </c>
+      <c r="E125" s="3">
         <f t="shared" si="8"/>
-        <v>2.1012499999999998</v>
-      </c>
-      <c r="D125" s="3">
-        <f t="shared" si="9"/>
-        <v>1713.2659131469366</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+        <v>3269.0124858115778</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" s="2">
         <v>170</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="3">
+        <f t="shared" si="4"/>
+        <v>47.222222222222221</v>
+      </c>
+      <c r="D126" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0952941176470588</v>
+      </c>
+      <c r="E126" s="3">
         <f t="shared" si="8"/>
-        <v>2.0952941176470588</v>
-      </c>
-      <c r="D126" s="3">
-        <f t="shared" si="9"/>
-        <v>1718.1358787198203</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+        <v>3286.7883995703546</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" s="2">
         <v>180</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="D127" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E127" s="3">
         <f t="shared" si="8"/>
-        <v>2.09</v>
-      </c>
-      <c r="D127" s="3">
-        <f t="shared" si="9"/>
-        <v>1722.488038277512</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+        <v>3302.7522935779816</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" s="2">
         <v>190</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="3">
+        <f t="shared" si="4"/>
+        <v>52.777777777777779</v>
+      </c>
+      <c r="D128" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0852631578947369</v>
+      </c>
+      <c r="E128" s="3">
         <f t="shared" si="8"/>
-        <v>2.0852631578947367</v>
-      </c>
-      <c r="D128" s="3">
-        <f t="shared" si="9"/>
-        <v>1726.4008076728926</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+        <v>3317.1677982541219</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" s="2">
         <v>200</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="3">
+        <f t="shared" si="4"/>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="D129" s="1">
+        <f t="shared" si="7"/>
+        <v>1.081</v>
+      </c>
+      <c r="E129" s="3">
         <f t="shared" si="8"/>
-        <v>2.081</v>
-      </c>
-      <c r="D129" s="3">
-        <f t="shared" si="9"/>
-        <v>1729.9375300336378</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+        <v>3330.249768732655</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" s="2">
         <v>210</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="3">
+        <f t="shared" si="4"/>
+        <v>58.333333333333329</v>
+      </c>
+      <c r="D130" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0771428571428572</v>
+      </c>
+      <c r="E130" s="3">
         <f t="shared" si="8"/>
-        <v>2.077142857142857</v>
-      </c>
-      <c r="D130" s="3">
-        <f t="shared" si="9"/>
-        <v>1733.1499312242092</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+        <v>3342.1750663129974</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" s="2">
         <v>220</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="3">
+        <f t="shared" ref="C131:C139" si="9">B131/3.6*$A$2</f>
+        <v>61.111111111111107</v>
+      </c>
+      <c r="D131" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0736363636363637</v>
+      </c>
+      <c r="E131" s="3">
         <f t="shared" si="8"/>
-        <v>2.0736363636363637</v>
-      </c>
-      <c r="D131" s="3">
-        <f t="shared" si="9"/>
-        <v>1736.0806663743972</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+        <v>3353.0906011854358</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" s="2">
         <v>230</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="3">
+        <f t="shared" si="9"/>
+        <v>63.888888888888886</v>
+      </c>
+      <c r="D132" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0704347826086957</v>
+      </c>
+      <c r="E132" s="3">
         <f t="shared" si="8"/>
-        <v>2.0704347826086957</v>
-      </c>
-      <c r="D132" s="3">
-        <f t="shared" si="9"/>
-        <v>1738.765224695506</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+        <v>3363.1194151096665</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" s="2">
         <v>240</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="3">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D133" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0674999999999999</v>
+      </c>
+      <c r="E133" s="3">
         <f t="shared" si="8"/>
-        <v>2.0674999999999999</v>
-      </c>
-      <c r="D133" s="3">
-        <f t="shared" si="9"/>
-        <v>1741.2333736396615</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+        <v>3372.3653395784545</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" s="2">
         <v>250</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="3">
+        <f t="shared" si="9"/>
+        <v>69.444444444444443</v>
+      </c>
+      <c r="D134" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0648</v>
+      </c>
+      <c r="E134" s="3">
         <f t="shared" si="8"/>
-        <v>2.0648</v>
-      </c>
-      <c r="D134" s="3">
-        <f t="shared" si="9"/>
-        <v>1743.510267338241</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+        <v>3380.9166040570999</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" s="2">
         <v>260</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="3">
+        <f t="shared" si="9"/>
+        <v>72.222222222222214</v>
+      </c>
+      <c r="D135" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0623076923076924</v>
+      </c>
+      <c r="E135" s="3">
         <f t="shared" si="8"/>
-        <v>2.0623076923076922</v>
-      </c>
-      <c r="D135" s="3">
-        <f t="shared" si="9"/>
-        <v>1745.6173069750093</v>
-      </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+        <v>3388.8486603910205</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" s="2">
         <v>270</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="3">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="D136" s="1">
+        <f t="shared" si="7"/>
+        <v>1.06</v>
+      </c>
+      <c r="E136" s="3">
         <f t="shared" si="8"/>
-        <v>2.06</v>
-      </c>
-      <c r="D136" s="3">
-        <f t="shared" si="9"/>
-        <v>1747.5728155339805</v>
-      </c>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+        <v>3396.2264150943392</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" s="2">
         <v>280</v>
       </c>
-      <c r="C137" s="1">
-        <f>(B137/1.8+4.5)/(B137/3.6)</f>
-        <v>2.0578571428571428</v>
-      </c>
-      <c r="D137" s="3">
-        <f>3600/C137</f>
-        <v>1749.392572023603</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C137" s="3">
+        <f t="shared" si="9"/>
+        <v>77.777777777777771</v>
+      </c>
+      <c r="D137" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0578571428571428</v>
+      </c>
+      <c r="E137" s="3">
+        <f t="shared" si="8"/>
+        <v>3403.1060094530721</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" s="2">
         <v>290</v>
       </c>
-      <c r="C138" s="1">
-        <f>(B138/1.8+4.5)/(B138/3.6)</f>
-        <v>2.0558620689655172</v>
-      </c>
-      <c r="D138" s="3">
-        <f>3600/C138</f>
-        <v>1751.0902381751091</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C138" s="3">
+        <f t="shared" si="9"/>
+        <v>80.555555555555557</v>
+      </c>
+      <c r="D138" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0558620689655172</v>
+      </c>
+      <c r="E138" s="3">
+        <f t="shared" si="8"/>
+        <v>3409.5362508164603</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139" s="2">
         <v>300</v>
       </c>
-      <c r="C139" s="1">
-        <f>(B139/1.8+4.5)/(B139/3.6)</f>
-        <v>2.0539999999999998</v>
-      </c>
-      <c r="D139" s="3">
-        <f>3600/C139</f>
-        <v>1752.6777020447907</v>
+      <c r="C139" s="3">
+        <f t="shared" si="9"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="D139" s="1">
+        <f t="shared" si="7"/>
+        <v>1.054</v>
+      </c>
+      <c r="E139" s="3">
+        <f t="shared" si="8"/>
+        <v>3415.5597722960151</v>
       </c>
     </row>
   </sheetData>
